--- a/biology/Botanique/Euphyllophyta/Euphyllophyta.xlsx
+++ b/biology/Botanique/Euphyllophyta/Euphyllophyta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphyllophytina · Euphyllophytes, Euphyllophytines
 Les Euphyllophytes (Euphyllophyta) ou Euphyllophytines (Euphyllophytina) sont un clade phylogénétique de trachéophytes (les plantes vasculaires) regroupant les Polypodiopsides (fougères et prêles) et les Spermatophytes (plantes à graines). Elles excluent donc les Lycophytes.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des clades selon le NCBI  (décembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des clades selon le NCBI  (décembre 2020) :
 Polypodiopsida Cronquist, Takht. &amp; W.Zimm., 1966 -  Fougères et Prêles
 Spermatophytina Willkomm, 1854 - Plantes à graines</t>
         </is>
@@ -544,9 +558,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Place au sein des Trachéophytes d'après le Pteridophytes Phylogeny Group (2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Place au sein des Trachéophytes d'après le Pteridophytes Phylogeny Group (2016) :
 </t>
         </is>
       </c>
